--- a/spec_generator/specs/Skills.xlsx
+++ b/spec_generator/specs/Skills.xlsx
@@ -134,24 +134,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,76 +164,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,6 +241,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -257,17 +258,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -286,49 +286,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,127 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,56 +479,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,147 +521,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,8 +721,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1050,7 +1053,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
@@ -1059,7 +1062,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1137,10 +1140,10 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1157,10 +1160,10 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2400</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1177,10 +1180,10 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1197,10 +1200,10 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1217,10 +1220,10 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2400</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1237,10 +1240,10 @@
         <v>27</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/spec_generator/specs/Skills.xlsx
+++ b/spec_generator/specs/Skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>auras</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>10490403</t>
+  </si>
+  <si>
+    <t>2,400</t>
   </si>
   <si>
     <t>飘飘拳3号</t>
@@ -121,16 +124,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,16 +153,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,108 +184,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,12 +289,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -304,163 +319,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,8 +480,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,47 +490,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -544,6 +506,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,8 +543,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,148 +579,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -729,6 +732,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1053,7 +1059,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
@@ -1162,8 +1168,8 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>2400</v>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1171,13 +1177,13 @@
         <v>10492</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1191,13 +1197,13 @@
         <v>10831</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1211,19 +1217,19 @@
         <v>10401</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <v>2400</v>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1231,13 +1237,13 @@
         <v>10402</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>2</v>
